--- a/Photon DC.xlsx
+++ b/Photon DC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/ch_choi_ufl_edu/Documents/Chansoo_Workspace/1. 연구/101. 논문 작성/16. 한국인 환경방사선 물(진행 중, 1저자)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/ch_choi_ufl_edu/Documents/Chansoo_Workspace/1. 연구/101. 논문 작성/16. 한국인 환경방사선 물(투고, 1저자)/Supplementary Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_E2C13A732CBDE4C1266F46753B08E291A0BB1613" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B2DF67-CA13-4C65-B6B8-C06A4A0AD684}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="11_E2C13A732CBDE4C1266F46753B08E291A0BB1613" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{684C1E43-797A-4881-952B-7A1135C50846}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1390" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult Male" sheetId="2" r:id="rId1"/>
@@ -139,11 +139,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -156,7 +156,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -571,14 +571,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
     <col min="2" max="30" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
       </c>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -764,7 +764,7 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32">
       <c r="A3" s="8">
         <v>0.01</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32">
       <c r="A4" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32">
       <c r="A5" s="8">
         <v>0.02</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32">
       <c r="A6" s="8">
         <v>0.03</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32">
       <c r="A7" s="8">
         <v>0.04</v>
       </c>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32">
       <c r="A8" s="8">
         <v>0.05</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32">
       <c r="A9" s="8">
         <v>0.06</v>
       </c>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32">
       <c r="A10" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32">
       <c r="A11" s="8">
         <v>0.08</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32">
       <c r="A12" s="8">
         <v>0.1</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32">
       <c r="A13" s="8">
         <v>0.15</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32">
       <c r="A14" s="8">
         <v>0.2</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32">
       <c r="A15" s="8">
         <v>0.3</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32">
       <c r="A16" s="8">
         <v>0.4</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32">
       <c r="A17" s="8">
         <v>0.5</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32">
       <c r="A18" s="8">
         <v>0.6</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32">
       <c r="A19" s="8">
         <v>0.8</v>
       </c>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32">
       <c r="A21" s="8">
         <v>1.5</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32">
       <c r="A27" s="8">
         <v>8</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3121,7 +3121,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3166,15 +3166,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="9" customWidth="1"/>
     <col min="2" max="30" width="29" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.125" style="11"/>
+    <col min="31" max="31" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AF2" s="10"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32">
       <c r="A3" s="8">
         <v>0.01</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32">
       <c r="A4" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32">
       <c r="A5" s="8">
         <v>0.02</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32">
       <c r="A6" s="8">
         <v>0.03</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="AF6" s="12"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32">
       <c r="A7" s="8">
         <v>0.04</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32">
       <c r="A8" s="8">
         <v>0.05</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32">
       <c r="A9" s="8">
         <v>0.06</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32">
       <c r="A10" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="AF10" s="12"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32">
       <c r="A11" s="8">
         <v>0.08</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32">
       <c r="A12" s="8">
         <v>0.1</v>
       </c>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="AF12" s="12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32">
       <c r="A13" s="8">
         <v>0.15</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="AF13" s="12"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32">
       <c r="A14" s="8">
         <v>0.2</v>
       </c>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AF14" s="12"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32">
       <c r="A15" s="8">
         <v>0.3</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32">
       <c r="A16" s="8">
         <v>0.4</v>
       </c>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32">
       <c r="A17" s="8">
         <v>0.5</v>
       </c>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32">
       <c r="A18" s="8">
         <v>0.6</v>
       </c>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32">
       <c r="A19" s="8">
         <v>0.8</v>
       </c>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32">
       <c r="A21" s="8">
         <v>1.5</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="AF21" s="12"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="AF23" s="12"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="AF24" s="12"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32">
       <c r="A27" s="8">
         <v>8</v>
       </c>
@@ -5629,7 +5629,9 @@
       <c r="L27" s="3">
         <v>3.7918025000000001E-3</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>3.7004250000000002E-3</v>
+      </c>
       <c r="N27" s="3">
         <v>3.8236125000000003E-3</v>
       </c>
@@ -5683,7 +5685,7 @@
       </c>
       <c r="AF27" s="12"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5716,7 +5718,7 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
